--- a/downloaded_files/EECS436_Tutorial-35763.xlsx
+++ b/downloaded_files/EECS436_Tutorial-35763.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,15 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Raouf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210411</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كنزى رجب صبحى محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kenzy Ragab Sobhy Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210300</x:t>
@@ -209,7 +200,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -509,7 +500,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T8"/>
+  <x:dimension ref="A1:T7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -728,7 +719,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6659138542</x:v>
+        <x:v>45906.6651760764</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -760,7 +751,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6651760764</x:v>
+        <x:v>45906.4394832176</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -777,38 +768,6 @@
       <x:c r="R7" s="2" t="s"/>
       <x:c r="S7" s="2" t="s"/>
       <x:c r="T7" s="2" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:20">
-      <x:c r="A8" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B8" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E8" s="3">
-        <x:v>45906.4394832176</x:v>
-      </x:c>
-      <x:c r="F8" s="2" t="s"/>
-      <x:c r="G8" s="2" t="s"/>
-      <x:c r="H8" s="2" t="s"/>
-      <x:c r="I8" s="2" t="s"/>
-      <x:c r="J8" s="2" t="s"/>
-      <x:c r="K8" s="2" t="s"/>
-      <x:c r="L8" s="2" t="s"/>
-      <x:c r="M8" s="2" t="s"/>
-      <x:c r="N8" s="2" t="s"/>
-      <x:c r="O8" s="2" t="s"/>
-      <x:c r="P8" s="2" t="s"/>
-      <x:c r="Q8" s="2" t="s"/>
-      <x:c r="R8" s="2" t="s"/>
-      <x:c r="S8" s="2" t="s"/>
-      <x:c r="T8" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS436_Tutorial-35763.xlsx
+++ b/downloaded_files/EECS436_Tutorial-35763.xlsx
@@ -66,7 +66,7 @@
     <x:t>عمر محمد رءوف شاذلى</x:t>
   </x:si>
   <x:si>
-    <x:t>Omar Mohamed Raouf</x:t>
+    <x:t>Omar Mohamed Raouf Shazly</x:t>
   </x:si>
   <x:si>
     <x:t>1210300</x:t>
